--- a/data/input/absenteeism_data_34.xlsx
+++ b/data/input/absenteeism_data_34.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85922</v>
+        <v>6837</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Kaique Melo</t>
+          <t>Rebeca Alves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>4949.91</v>
+        <v>11982.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29466</v>
+        <v>91004</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Benício da Conceição</t>
+          <t>Isabella Pires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>10806.39</v>
+        <v>3504.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44052</v>
+        <v>5782</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelly da Cruz</t>
+          <t>Ryan da Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>10974.29</v>
+        <v>3711.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50257</v>
+        <v>54491</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcelo Fogaça</t>
+          <t>Gabriel Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>3239.88</v>
+        <v>3738.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>580</v>
+        <v>35051</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davi Lucas Vieira</t>
+          <t>Thiago Silva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,109 +610,109 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>5077.3</v>
+        <v>8530.440000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85480</v>
+        <v>66247</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur da Cruz</t>
+          <t>Lucca Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>12289.86</v>
+        <v>8603.280000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48336</v>
+        <v>73519</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Isis da Rocha</t>
+          <t>Julia Gomes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>3889.93</v>
+        <v>4688.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86146</v>
+        <v>6829</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Sophia Caldeira</t>
+          <t>Raul da Cruz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45091</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>7654.28</v>
+        <v>5294.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8033</v>
+        <v>95444</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Julia da Luz</t>
+          <t>Srta. Ana Júlia Barros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>5443.32</v>
+        <v>6349.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59853</v>
+        <v>80367</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calebe Barros</t>
+          <t>Augusto Porto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>4760.03</v>
+        <v>5182.44</v>
       </c>
     </row>
   </sheetData>
